--- a/data/long_razon/P24_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_4-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,27; 246,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 45,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 101,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 82,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 82,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 50,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 99,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 51,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 51,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 222,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 237,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 57,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 83,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 47,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 54,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 99,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 86,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 40,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>175,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-50,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>117,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-75,91; 663,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 1266,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 23,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 130,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 371,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 95,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 125,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 355,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 37,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 177,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 94,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 44,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 61,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 53,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 35,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 56,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 30,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_4-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_4-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_4-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.9494549081116791</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1039020837554885</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.08411328114407655</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.112589776873115</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2588303609228416</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.3103013523950645</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2993699429372725</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1670958082922487</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.839571639953034</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3399434729695407</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.5121624583882486</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2190018171300624</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.1358437677504711</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.9365806837417031</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.3072339327851196</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.1217810542304779</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2985168973558746</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3177521729926021</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.2644318278914858</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2276080523151128</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.04565319122545477</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.05709807061894812</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.09372639934138954</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.3346847279283385</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.01228505844814982</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1272742097971622</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.08146652925005668</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1118441357257143</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.4569488130539442</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.03115934853765974</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.469995598998</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.769375100806947</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9018814946035963</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.516793289317682</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9938546286304186</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8624069093544027</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7266598614581317</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5448588290408061</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.524172995528402</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7292691070372025</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.002029966714783</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5716963237206708</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.4616770143499836</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.569430709655959</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.7029822916824717</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.7058651395659331</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7839988633335878</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.003353990035786851</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5788948843517199</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1485154428378374</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1985927835091058</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05291944981661507</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1596487941909203</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.5172448264821392</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1.264545159729912</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.3392462660537557</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2500375771025495</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.09138342418272916</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.5455305594653524</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.7499622935722724</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1048830321312929</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.07113694913468062</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3688209208420103</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.07787817896792457</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4467059251118993</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2178324013039131</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3503814618708687</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1438952419778663</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1040838865938331</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.2417829958442988</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.08926362000786112</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.127504695699544</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1669248061508939</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.1496873079829867</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.15410096980036</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.085304719291692</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.504370794907958</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.509822257807891</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.585905726726533</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.37682536120455</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7620074348813412</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4081494924418552</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5972215737784058</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.150858339681603</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>3.141927718856019</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.8436442432991321</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8232994711398127</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.4169302986456221</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.059240305057992</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.860601033693073</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1396131869480114</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.399296681608065</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4903815692943831</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.703284376160412</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.1513806283644968</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.9756082547615117</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1065532671937826</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.6383059819382907</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.05429419755935407</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1.116533899089872</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.1452255674427874</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.9219169183026475</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.8809149920776832</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5859699641053975</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7964111407860741</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4143462060315057</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.4529115928963249</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2107568620800273</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3479733713204016</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1739804666490611</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.4792942176881698</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.07087962925982821</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4643043463040886</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0.03295106980448276</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>3.25526460235036</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.980766439079721</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3047927357241947</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.92150946997816</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.232822670137678</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>3.774888697160007</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.017032800209842</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2.438752228030605</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>1.039209799648337</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>3.487124825593674</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.4263891219073569</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>2.488706597887298</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.7062078656066831</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4544513811666233</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.03268859409306284</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.8679246611083011</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2352520786324879</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2454148924596287</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1918348960507903</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1561348796602619</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.6870036229915939</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.5033732858964496</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3851157456523072</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.2928712686223596</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.07937937410645987</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.7582864463304047</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.3922731352349413</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.1023172977277365</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.02237682787037206</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2943861935299591</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3134956670894395</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1271979562186757</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.01550548725588413</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.07073834616501758</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.04597310988424069</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.3536753743008761</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1540934170906671</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.1327878229895011</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.05528077601552008</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.0868198763391122</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.4499614136297691</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0.115217747548646</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.581245106941548</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.22485530354858</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.309082476903866</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.657857435138232</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8882167512175543</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5605063713276084</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4619161267816602</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3943194039271937</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.072003237865077</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.933933168376861</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.7226455351858525</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5955361049472735</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2783920607250781</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>1.098941641798766</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.7337081519458206</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
